--- a/dataFiles/ForgotPassword.xlsx
+++ b/dataFiles/ForgotPassword.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6900"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ForgotPasswords" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -138,7 +138,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>Latname</t>
+    <t>Lastname</t>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +528,7 @@
     <col min="19" max="19" width="68.42578125" customWidth="1"/>
     <col min="20" max="20" width="27.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -660,16 +661,16 @@
         <v>37</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:V2">
-      <formula1>"RVMBJSKI,jrspdert,k,Prabha@er,prabha@1r,TEST@12DS,DEMOtv12,'76543324,'!@#$%^&amp;*"</formula1>
+      <formula1>"RVMBJSKI,jrspdert,k,Prabha@er,Empty,prabha@1r,TEST@12DS,DEMOtv12,'76543324,'!@#$%^&amp;*"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataFiles/ForgotPassword.xlsx
+++ b/dataFiles/ForgotPassword.xlsx
@@ -129,9 +129,6 @@
     <t>LastNameErrorText</t>
   </si>
   <si>
-    <t>Password must have at least one special character,Password must have a number,Password must have at least one special character,Password must be 8 digit long,Password must have upper case,Password must have lower case,Please enter new password</t>
-  </si>
-  <si>
     <t>Password do not match</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Lastname</t>
+  </si>
+  <si>
+    <t>Password must have at least one special character;Password must have a number;Password must have at least one special character;Password must be 8 digit long;Password must have upper case;Password must have lower case;Please enter new password</t>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,13 +593,13 @@
         <v>35</v>
       </c>
       <c r="U1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -655,10 +655,10 @@
         <v>21</v>
       </c>
       <c r="S2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>27</v>

--- a/dataFiles/ForgotPassword.xlsx
+++ b/dataFiles/ForgotPassword.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="83">
   <si>
     <t>Field</t>
   </si>
@@ -139,6 +139,135 @@
   </si>
   <si>
     <t>Password must have at least one special character;Password must have a number;Password must have at least one special character;Password must be 8 digit long;Password must have upper case;Password must have lower case;Please enter new password</t>
+  </si>
+  <si>
+    <t>Writedata1</t>
+  </si>
+  <si>
+    <t>prabhaqtgs4104@mailinator.com</t>
+  </si>
+  <si>
+    <t>PrabhaufuE</t>
+  </si>
+  <si>
+    <t>automationvbkm</t>
+  </si>
+  <si>
+    <t>Testdata2</t>
+  </si>
+  <si>
+    <t>Writedata2</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Writedata3</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Writedata4</t>
+  </si>
+  <si>
+    <t>Testdata5</t>
+  </si>
+  <si>
+    <t>Writedata5</t>
+  </si>
+  <si>
+    <t>Testdata6</t>
+  </si>
+  <si>
+    <t>Writedata6</t>
+  </si>
+  <si>
+    <t>Testdata7</t>
+  </si>
+  <si>
+    <t>Writedata7</t>
+  </si>
+  <si>
+    <t>Testdata8</t>
+  </si>
+  <si>
+    <t>Writedata8</t>
+  </si>
+  <si>
+    <t>Testdata9</t>
+  </si>
+  <si>
+    <t>Writedata9</t>
+  </si>
+  <si>
+    <t>Testdata10</t>
+  </si>
+  <si>
+    <t>Writedata10</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Testdata11</t>
+  </si>
+  <si>
+    <t>Writedata11</t>
+  </si>
+  <si>
+    <t>Testdata12</t>
+  </si>
+  <si>
+    <t>Writedata12</t>
+  </si>
+  <si>
+    <t>Testdata13</t>
+  </si>
+  <si>
+    <t>Writedata13</t>
+  </si>
+  <si>
+    <t>Testdata14</t>
+  </si>
+  <si>
+    <t>Writedata14</t>
+  </si>
+  <si>
+    <t>Testdata15</t>
+  </si>
+  <si>
+    <t>Writedata15</t>
+  </si>
+  <si>
+    <t>Testdata16</t>
+  </si>
+  <si>
+    <t>Writedata16</t>
+  </si>
+  <si>
+    <t>Testdata17</t>
+  </si>
+  <si>
+    <t>Writedata17</t>
+  </si>
+  <si>
+    <t>Testdata18</t>
+  </si>
+  <si>
+    <t>Writedata18</t>
+  </si>
+  <si>
+    <t>Testdata19</t>
+  </si>
+  <si>
+    <t>Writedata19</t>
+  </si>
+  <si>
+    <t>Testdata20</t>
+  </si>
+  <si>
+    <t>Writedata20</t>
   </si>
 </sst>
 </file>
@@ -161,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +355,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,15 +645,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -531,7 +676,7 @@
     <col min="22" max="22" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -661,16 +806,2351 @@
         <v>36</v>
       </c>
       <c r="U2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+    </row>
+    <row r="4" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+    </row>
+    <row r="6" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+    </row>
+    <row r="8" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+    </row>
+    <row r="10" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+    </row>
+    <row r="12" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+    </row>
+    <row r="14" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+    </row>
+    <row r="16" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+    </row>
+    <row r="18" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+    </row>
+    <row r="20" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+    </row>
+    <row r="22" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+    </row>
+    <row r="24" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+    </row>
+    <row r="26" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+    </row>
+    <row r="28" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+    </row>
+    <row r="30" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+    </row>
+    <row r="32" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+    </row>
+    <row r="34" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+    </row>
+    <row r="36" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+    </row>
+    <row r="38" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+    </row>
+    <row r="40" spans="1:42" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:V2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:V2 U18:V18 U4:V4 U6:V6 U8:V8 U10:V10 U12:V12 U16:V16 U14:V14 U20:V20 U22:V22 U38:V38 U24:V24 U26:V26 U28:V28 U30:V30 U32:V32 U36:V36 U34:V34 U40:V40">
       <formula1>"RVMBJSKI,jrspdert,k,Prabha@er,Empty,prabha@1r,TEST@12DS,DEMOtv12,'76543324,'!@#$%^&amp;*"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B31 B33 B35 B37 B39 B41">
+      <formula1>"Employee,Student"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
